--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H2">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I2">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J2">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N2">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q2">
-        <v>1041.476165925188</v>
+        <v>1069.270576910912</v>
       </c>
       <c r="R2">
-        <v>1041.476165925188</v>
+        <v>9623.435192198211</v>
       </c>
       <c r="S2">
-        <v>0.4232648276285196</v>
+        <v>0.4059612637491041</v>
       </c>
       <c r="T2">
-        <v>0.4232648276285196</v>
+        <v>0.405961263749104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H3">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I3">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J3">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N3">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q3">
-        <v>189.9290372440718</v>
+        <v>196.4558667089529</v>
       </c>
       <c r="R3">
-        <v>189.9290372440718</v>
+        <v>1768.102800380576</v>
       </c>
       <c r="S3">
-        <v>0.07718878630251572</v>
+        <v>0.07458680117290538</v>
       </c>
       <c r="T3">
-        <v>0.07718878630251572</v>
+        <v>0.07458680117290538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H4">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I4">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J4">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N4">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q4">
-        <v>210.4954651913238</v>
+        <v>217.8749584370822</v>
       </c>
       <c r="R4">
-        <v>210.4954651913238</v>
+        <v>1960.87462593374</v>
       </c>
       <c r="S4">
-        <v>0.08554715864442611</v>
+        <v>0.08271881353167604</v>
       </c>
       <c r="T4">
-        <v>0.08554715864442611</v>
+        <v>0.08271881353167602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H5">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I5">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J5">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N5">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q5">
-        <v>226.1377536302895</v>
+        <v>233.267079729442</v>
       </c>
       <c r="R5">
-        <v>226.1377536302895</v>
+        <v>2099.403717564978</v>
       </c>
       <c r="S5">
-        <v>0.09190431854539498</v>
+        <v>0.08856261504137238</v>
       </c>
       <c r="T5">
-        <v>0.09190431854539498</v>
+        <v>0.08856261504137236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H6">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I6">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J6">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N6">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q6">
-        <v>245.7316850027073</v>
+        <v>273.0485016699953</v>
       </c>
       <c r="R6">
-        <v>245.7316850027073</v>
+        <v>2457.436515029958</v>
       </c>
       <c r="S6">
-        <v>0.09986745995587945</v>
+        <v>0.1036661039743414</v>
       </c>
       <c r="T6">
-        <v>0.09986745995587945</v>
+        <v>0.1036661039743414</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H7">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I7">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J7">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N7">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q7">
-        <v>45.40197623193559</v>
+        <v>49.51973299906577</v>
       </c>
       <c r="R7">
-        <v>45.40197623193559</v>
+        <v>445.677596991592</v>
       </c>
       <c r="S7">
-        <v>0.01845175172754243</v>
+        <v>0.01880075429260958</v>
       </c>
       <c r="T7">
-        <v>0.01845175172754243</v>
+        <v>0.01880075429260957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H8">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I8">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J8">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N8">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q8">
-        <v>8.279741694376117</v>
+        <v>9.098204210979555</v>
       </c>
       <c r="R8">
-        <v>8.279741694376117</v>
+        <v>81.883837898816</v>
       </c>
       <c r="S8">
-        <v>0.003364957889329666</v>
+        <v>0.00345424119871243</v>
       </c>
       <c r="T8">
-        <v>0.003364957889329666</v>
+        <v>0.003454241198712429</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H9">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I9">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J9">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N9">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q9">
-        <v>9.176311873692178</v>
+        <v>10.09015865764889</v>
       </c>
       <c r="R9">
-        <v>9.176311873692178</v>
+        <v>90.81142791884</v>
       </c>
       <c r="S9">
-        <v>0.003729331683777444</v>
+        <v>0.003830848476090995</v>
       </c>
       <c r="T9">
-        <v>0.003729331683777444</v>
+        <v>0.003830848476090993</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H10">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I10">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J10">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N10">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q10">
-        <v>9.858219757093533</v>
+        <v>10.802993886772</v>
       </c>
       <c r="R10">
-        <v>9.858219757093533</v>
+        <v>97.22694498094801</v>
       </c>
       <c r="S10">
-        <v>0.004006464883911699</v>
+        <v>0.004101484830170539</v>
       </c>
       <c r="T10">
-        <v>0.004006464883911699</v>
+        <v>0.004101484830170537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H11">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I11">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J11">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N11">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q11">
-        <v>10.71239504748092</v>
+        <v>12.64533897262533</v>
       </c>
       <c r="R11">
-        <v>10.71239504748092</v>
+        <v>113.808050753628</v>
       </c>
       <c r="S11">
-        <v>0.004353609032649068</v>
+        <v>0.004800953005452879</v>
       </c>
       <c r="T11">
-        <v>0.004353609032649068</v>
+        <v>0.004800953005452877</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>4.23448723098897</v>
+        <v>0.007854</v>
       </c>
       <c r="H12">
-        <v>4.23448723098897</v>
+        <v>0.023562</v>
       </c>
       <c r="I12">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189685</v>
       </c>
       <c r="J12">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189684</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N12">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q12">
-        <v>252.1716410775572</v>
+        <v>0.472366101284</v>
       </c>
       <c r="R12">
-        <v>252.1716410775572</v>
+        <v>4.251294911556</v>
       </c>
       <c r="S12">
-        <v>0.1024847132230583</v>
+        <v>0.0001793393960053451</v>
       </c>
       <c r="T12">
-        <v>0.1024847132230583</v>
+        <v>0.0001793393960053451</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>4.23448723098897</v>
+        <v>0.007854</v>
       </c>
       <c r="H13">
-        <v>4.23448723098897</v>
+        <v>0.023562</v>
       </c>
       <c r="I13">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189685</v>
       </c>
       <c r="J13">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189684</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N13">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q13">
-        <v>45.98733852691785</v>
+        <v>0.086787286432</v>
       </c>
       <c r="R13">
-        <v>45.98733852691785</v>
+        <v>0.781085577888</v>
       </c>
       <c r="S13">
-        <v>0.01868964797422783</v>
+        <v>3.294982321413453E-05</v>
       </c>
       <c r="T13">
-        <v>0.01868964797422783</v>
+        <v>3.294982321413452E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.23448723098897</v>
+        <v>0.007854</v>
       </c>
       <c r="H14">
-        <v>4.23448723098897</v>
+        <v>0.023562</v>
       </c>
       <c r="I14">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189685</v>
       </c>
       <c r="J14">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189684</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N14">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q14">
-        <v>50.96706831454546</v>
+        <v>0.09624948718000001</v>
       </c>
       <c r="R14">
-        <v>50.96706831454546</v>
+        <v>0.86624538462</v>
       </c>
       <c r="S14">
-        <v>0.02071345278048032</v>
+        <v>3.654226001773867E-05</v>
       </c>
       <c r="T14">
-        <v>0.02071345278048032</v>
+        <v>3.654226001773866E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.23448723098897</v>
+        <v>0.007854</v>
       </c>
       <c r="H15">
-        <v>4.23448723098897</v>
+        <v>0.023562</v>
       </c>
       <c r="I15">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189685</v>
       </c>
       <c r="J15">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189684</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N15">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q15">
-        <v>54.75452085058922</v>
+        <v>0.103049184546</v>
       </c>
       <c r="R15">
-        <v>54.75452085058922</v>
+        <v>0.9274426609140001</v>
       </c>
       <c r="S15">
-        <v>0.02225270590721478</v>
+        <v>3.912384581596344E-05</v>
       </c>
       <c r="T15">
-        <v>0.02225270590721478</v>
+        <v>3.912384581596343E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007854</v>
+      </c>
+      <c r="H16">
+        <v>0.023562</v>
+      </c>
+      <c r="I16">
+        <v>0.0003337513606189685</v>
+      </c>
+      <c r="J16">
+        <v>0.0003337513606189684</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.358189</v>
+      </c>
+      <c r="N16">
+        <v>46.074567</v>
+      </c>
+      <c r="O16">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P16">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q16">
+        <v>0.120623216406</v>
+      </c>
+      <c r="R16">
+        <v>1.085608947654</v>
+      </c>
+      <c r="S16">
+        <v>4.579603556578673E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.57960355657867E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H17">
+        <v>14.767745</v>
+      </c>
+      <c r="I17">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J17">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>60.14337933333334</v>
+      </c>
+      <c r="N17">
+        <v>180.430138</v>
+      </c>
+      <c r="O17">
+        <v>0.5373443142606099</v>
+      </c>
+      <c r="P17">
+        <v>0.5373443142606098</v>
+      </c>
+      <c r="Q17">
+        <v>296.0606964776456</v>
+      </c>
+      <c r="R17">
+        <v>2664.54626829881</v>
+      </c>
+      <c r="S17">
+        <v>0.1124029568228909</v>
+      </c>
+      <c r="T17">
+        <v>0.1124029568228909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H18">
+        <v>14.767745</v>
+      </c>
+      <c r="I18">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J18">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.05007466666667</v>
+      </c>
+      <c r="N18">
+        <v>33.150224</v>
+      </c>
+      <c r="O18">
+        <v>0.09872565958390839</v>
+      </c>
+      <c r="P18">
+        <v>0.09872565958390837</v>
+      </c>
+      <c r="Q18">
+        <v>54.39489496943111</v>
+      </c>
+      <c r="R18">
+        <v>489.55405472488</v>
+      </c>
+      <c r="S18">
+        <v>0.02065166738907644</v>
+      </c>
+      <c r="T18">
+        <v>0.02065166738907643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H19">
+        <v>14.767745</v>
+      </c>
+      <c r="I19">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J19">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.25483666666667</v>
+      </c>
+      <c r="N19">
+        <v>36.76451</v>
+      </c>
+      <c r="O19">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="P19">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="Q19">
+        <v>60.32543430332778</v>
+      </c>
+      <c r="R19">
+        <v>542.92890872995</v>
+      </c>
+      <c r="S19">
+        <v>0.02290326702595961</v>
+      </c>
+      <c r="T19">
+        <v>0.0229032670259596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.23448723098897</v>
-      </c>
-      <c r="H16">
-        <v>4.23448723098897</v>
-      </c>
-      <c r="I16">
-        <v>0.1883213337060537</v>
-      </c>
-      <c r="J16">
-        <v>0.1883213337060537</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>14.0510002072976</v>
-      </c>
-      <c r="N16">
-        <v>14.0510002072976</v>
-      </c>
-      <c r="O16">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="P16">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="Q16">
-        <v>59.49878096042505</v>
-      </c>
-      <c r="R16">
-        <v>59.49878096042505</v>
-      </c>
-      <c r="S16">
-        <v>0.02418081382107247</v>
-      </c>
-      <c r="T16">
-        <v>0.02418081382107247</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H20">
+        <v>14.767745</v>
+      </c>
+      <c r="I20">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J20">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.120599</v>
+      </c>
+      <c r="N20">
+        <v>39.361797</v>
+      </c>
+      <c r="O20">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="P20">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="Q20">
+        <v>64.58722009308501</v>
+      </c>
+      <c r="R20">
+        <v>581.284980837765</v>
+      </c>
+      <c r="S20">
+        <v>0.02452130457641393</v>
+      </c>
+      <c r="T20">
+        <v>0.02452130457641392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H21">
+        <v>14.767745</v>
+      </c>
+      <c r="I21">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J21">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.358189</v>
+      </c>
+      <c r="N21">
+        <v>46.074567</v>
+      </c>
+      <c r="O21">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P21">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q21">
+        <v>75.60193960460168</v>
+      </c>
+      <c r="R21">
+        <v>680.417456441415</v>
+      </c>
+      <c r="S21">
+        <v>0.02870317355260458</v>
+      </c>
+      <c r="T21">
+        <v>0.02870317355260456</v>
       </c>
     </row>
   </sheetData>
